--- a/data/groups.xlsx
+++ b/data/groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\Python\python-gui-test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FC71DEB-FE56-42D0-AF46-D45CD2D58651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9C9608F-8AB9-444F-B495-054599814C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{516DFFAF-E691-4E46-B735-E79C8DCA8EFA}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{FC858C7D-2543-46D0-983E-581D1C69ECC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,36 +31,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>group 0</t>
-  </si>
-  <si>
-    <t>group 1</t>
-  </si>
-  <si>
-    <t>group 2</t>
-  </si>
-  <si>
-    <t>group 3</t>
-  </si>
-  <si>
-    <t>group 4</t>
-  </si>
-  <si>
-    <t>group 5</t>
-  </si>
-  <si>
-    <t>group 6</t>
-  </si>
-  <si>
-    <t>group 7</t>
-  </si>
-  <si>
-    <t>group 8</t>
-  </si>
-  <si>
-    <t>group 9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">groupk"*-f </t>
+  </si>
+  <si>
+    <t>groupRC8</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>groupGUM8N</t>
+  </si>
+  <si>
+    <t>group, dV</t>
+  </si>
+  <si>
+    <t>group(&gt;b6Ks06</t>
+  </si>
+  <si>
+    <t>grouph 9QwNz</t>
+  </si>
+  <si>
+    <t>groupd\"</t>
   </si>
 </sst>
 </file>
@@ -412,8 +409,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE0CAE9-0F35-429F-92C6-2B98599B3C4A}">
-  <dimension ref="A1:A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72677400-EF51-43D8-9211-325F6D29236B}">
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,32 +438,37 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
